--- a/MTS01RT.xlsx
+++ b/MTS01RT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18300" windowHeight="11200" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="24860" windowHeight="11200" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (4)" sheetId="4" r:id="rId1"/>
@@ -129,11 +129,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -197,41 +197,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,8 +217,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,20 +277,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -284,8 +286,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,19 +303,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,23 +316,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -347,30 +329,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -386,9 +362,33 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -412,31 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,19 +436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,13 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +472,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,85 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,32 +618,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,22 +628,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,16 +660,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,6 +681,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,251 +714,275 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,29 +1024,29 @@
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比 2" xfId="1"/>
-    <cellStyle name="百分比 2 2" xfId="2"/>
-    <cellStyle name="百分比 2 2 2" xfId="3"/>
-    <cellStyle name="百分比 2 2 3" xfId="4"/>
-    <cellStyle name="百分比 2 3" xfId="5"/>
-    <cellStyle name="百分比 2 4" xfId="6"/>
-    <cellStyle name="百分比 3" xfId="7"/>
-    <cellStyle name="百分比 4" xfId="8"/>
-    <cellStyle name="常规 4 2" xfId="9"/>
-    <cellStyle name="標準_異形状多品種外電設備取扱説明書" xfId="10"/>
-    <cellStyle name="常规 11" xfId="11"/>
+    <cellStyle name="注释 2" xfId="1"/>
+    <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 5 2" xfId="3"/>
+    <cellStyle name="常规 5" xfId="4"/>
+    <cellStyle name="常规 4" xfId="5"/>
+    <cellStyle name="常规 3 4" xfId="6"/>
+    <cellStyle name="常规 3 2" xfId="7"/>
+    <cellStyle name="常规 2 7" xfId="8"/>
+    <cellStyle name="常规 6 2" xfId="9"/>
+    <cellStyle name="常规 2 5" xfId="10"/>
+    <cellStyle name="常规 2" xfId="11"/>
     <cellStyle name="常规 12" xfId="12"/>
-    <cellStyle name="常规 2" xfId="13"/>
-    <cellStyle name="常规 2 5" xfId="14"/>
-    <cellStyle name="常规 6 2" xfId="15"/>
-    <cellStyle name="常规 2 7" xfId="16"/>
-    <cellStyle name="常规 3 2" xfId="17"/>
-    <cellStyle name="常规 3 4" xfId="18"/>
-    <cellStyle name="常规 4" xfId="19"/>
-    <cellStyle name="常规 5" xfId="20"/>
-    <cellStyle name="常规 5 2" xfId="21"/>
-    <cellStyle name="常规 6" xfId="22"/>
-    <cellStyle name="注释 2" xfId="23"/>
+    <cellStyle name="常规 11" xfId="13"/>
+    <cellStyle name="標準_異形状多品種外電設備取扱説明書" xfId="14"/>
+    <cellStyle name="常规 4 2" xfId="15"/>
+    <cellStyle name="百分比 4" xfId="16"/>
+    <cellStyle name="百分比 3" xfId="17"/>
+    <cellStyle name="百分比 2 4" xfId="18"/>
+    <cellStyle name="百分比 2 3" xfId="19"/>
+    <cellStyle name="百分比 2 2 3" xfId="20"/>
+    <cellStyle name="百分比 2 2 2" xfId="21"/>
+    <cellStyle name="百分比 2 2" xfId="22"/>
+    <cellStyle name="百分比 2" xfId="23"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="24" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="25" builtinId="42"/>
     <cellStyle name="Header2" xfId="26"/>
@@ -1077,8 +1077,8 @@
     <cellStyle name="输出" xfId="51" builtinId="21"/>
     <cellStyle name="常规 2 2 4" xfId="52"/>
     <cellStyle name="标题 1" xfId="53" builtinId="16"/>
-    <cellStyle name="常规 2 2 2" xfId="54"/>
-    <cellStyle name="常规 2 8" xfId="55"/>
+    <cellStyle name="常规 2 8" xfId="54"/>
+    <cellStyle name="常规 2 2 2" xfId="55"/>
     <cellStyle name="解释性文本" xfId="56" builtinId="53"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="57" builtinId="34"/>
     <cellStyle name="标题 4" xfId="58" builtinId="19"/>
@@ -3719,416 +3719,443 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$34:$B$169</c:f>
+              <c:f>Sheet1!$B$25:$B$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>-10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>-9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>-8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>-7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>-6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>-5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>-4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="28">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="30">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="31">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="32">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="34">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="35">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="36">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="38">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="40">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="41">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="42">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="43">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="44">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="45">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="51">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="54">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="55">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="56">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="62">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="64">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="65">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="66">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="67">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="68">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="69">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="70">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="71">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="72">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="73">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="74">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="75">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="76">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="77">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="78">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="79">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="80">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="81">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="82">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="83">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="84">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="85">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="86">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="87">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="88">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="89">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="90">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="91">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="92">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="93">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="94">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="95">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="96">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="97">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="98">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="99">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="100">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="101">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="102">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="103">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="104">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="105">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="106">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="107">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="108">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="109">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="110">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="111">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="112">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="113">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="114">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="115">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="116">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="117">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="118">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="119">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="120">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="121">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="122">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="123">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="124">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="125">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="126">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="127">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="128">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="129">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="130">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="131">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="132">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="133">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="134">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="135">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="136">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="137">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="138">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="139">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="140">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="141">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="142">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="143">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="144">
                   <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
@@ -4136,416 +4163,443 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$34:$D$169</c:f>
+              <c:f>Sheet1!$D$25:$D$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="136"/>
+                <c:ptCount val="145"/>
                 <c:pt idx="0">
+                  <c:v>900.373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>850.787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804.212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>760.451</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>719.319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>680.643</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>644.265</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>610.035</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>577.816</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>547.478</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="10">
                   <c:v>518.903</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="11">
                   <c:v>491.979</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>466.601</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>442.674</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>420.105</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>398.813</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>378.717</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>359.744</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>341.826</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>324.899</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>308.903</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>293.781</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>279.483</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>265.958</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="24">
                   <c:v>253.161</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="25">
                   <c:v>241.049</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="26">
                   <c:v>229.582</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="27">
                   <c:v>218.722</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="28">
                   <c:v>208.435</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
                   <c:v>198.687</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="30">
                   <c:v>189.447</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="31">
                   <c:v>180.686</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="32">
                   <c:v>172.377</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
                   <c:v>164.495</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="34">
                   <c:v>157.015</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="35">
                   <c:v>149.914</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="36">
                   <c:v>143.173</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="37">
                   <c:v>136.77</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="38">
                   <c:v>130.688</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="39">
                   <c:v>124.908</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="40">
                   <c:v>119.413</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="41">
                   <c:v>114.19</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="42">
                   <c:v>109.222</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="43">
                   <c:v>104.497</c:v>
                 </c:pt>
-                <c:pt idx="35" c:formatCode="0.000_ ">
+                <c:pt idx="44" c:formatCode="0.000_ ">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="45">
                   <c:v>95.72</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="46">
                   <c:v>91.646</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="47">
                   <c:v>87.766</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="48">
                   <c:v>84.071</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="49">
                   <c:v>80.55</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
                   <c:v>77.195</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="51">
                   <c:v>73.997</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
                   <c:v>70.947</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="53">
                   <c:v>68.039</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="54">
                   <c:v>65.265</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="55">
                   <c:v>62.618</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="56">
                   <c:v>60.092</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="57">
                   <c:v>57.681</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="58">
                   <c:v>55.379</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="59">
                   <c:v>53.18</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="60">
                   <c:v>51.08</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
                   <c:v>49.073</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="62">
                   <c:v>47.155</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="63">
                   <c:v>45.321</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="64">
                   <c:v>43.569</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="65">
                   <c:v>41.892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="66">
                   <c:v>40.289</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="67">
                   <c:v>38.755</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="68">
                   <c:v>37.286</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="69">
                   <c:v>35.881</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="70">
                   <c:v>34.536</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="71">
                   <c:v>33.248</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="72">
                   <c:v>32.014</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="73">
                   <c:v>30.832</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="74">
                   <c:v>29.699</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="75">
                   <c:v>28.614</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="76">
                   <c:v>27.573</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="77">
                   <c:v>26.576</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="78">
                   <c:v>25.619</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="79">
                   <c:v>24.701</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="80">
                   <c:v>23.821</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="81">
                   <c:v>22.976</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="82">
                   <c:v>22.166</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="83">
                   <c:v>21.388</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="84">
                   <c:v>20.641</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="85">
                   <c:v>19.923</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="86">
                   <c:v>19.234</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="87">
                   <c:v>18.572</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="88">
                   <c:v>17.936</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="89">
                   <c:v>17.325</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="90">
                   <c:v>16.738</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="91">
                   <c:v>16.173</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="92">
                   <c:v>15.63</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="93">
                   <c:v>15.108</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="94">
                   <c:v>14.605</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="95">
                   <c:v>14.122</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="96">
                   <c:v>13.657</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="97">
                   <c:v>13.209</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="98">
                   <c:v>12.779</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="99">
                   <c:v>12.364</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="100">
                   <c:v>11.965</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="101">
                   <c:v>11.58</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="102">
                   <c:v>11.21</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="103">
                   <c:v>10.853</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="104">
                   <c:v>10.509</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="105">
                   <c:v>10.177</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="106">
                   <c:v>9.858</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="107">
                   <c:v>9.55</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="108">
                   <c:v>9.253</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="109">
                   <c:v>8.967</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="110">
                   <c:v>8.691</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="111">
                   <c:v>8.424</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="112">
                   <c:v>8.167</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="113">
                   <c:v>7.919</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="114">
                   <c:v>7.68</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="115">
                   <c:v>7.449</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="116">
                   <c:v>7.226</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="117">
                   <c:v>7.01</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="118">
                   <c:v>6.802</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="119">
                   <c:v>6.601</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="120">
                   <c:v>6.407</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="121">
                   <c:v>6.22</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="122">
                   <c:v>6.039</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="123">
                   <c:v>5.864</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="124">
                   <c:v>5.694</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="125">
                   <c:v>5.531</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="126">
                   <c:v>5.373</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="127">
                   <c:v>5.22</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="128">
                   <c:v>5.072</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="129">
                   <c:v>4.929</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="130">
                   <c:v>4.79</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="131">
                   <c:v>4.656</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="132">
                   <c:v>4.527</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="133">
                   <c:v>4.401</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="134">
                   <c:v>4.28</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="135">
                   <c:v>4.162</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="136">
                   <c:v>4.048</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="137">
                   <c:v>3.938</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="138">
                   <c:v>3.831</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="139">
                   <c:v>3.728</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="140">
                   <c:v>3.628</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="141">
                   <c:v>3.531</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="142">
                   <c:v>3.437</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="143">
                   <c:v>3.346</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="144">
                   <c:v>3.257</c:v>
                 </c:pt>
               </c:numCache>
@@ -10394,8 +10448,8 @@
   <sheetPr/>
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="J162" sqref="J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
